--- a/static/Шаблон отчёта.xlsx
+++ b/static/Шаблон отчёта.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B89738-7CEA-4FCD-B26F-19D82215721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46AC64C-38E7-4BA9-A950-94E5C42B1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>Вероятностная оценка запасов</t>
   </si>
@@ -1264,6 +1264,43 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> = 0,01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поправка на температуру </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>К</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, К</t>
     </r>
   </si>
 </sst>
@@ -1568,7 +1605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,11 +1671,81 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1647,9 +1754,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1661,84 +1765,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,9 +1774,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2189,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="106" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="106" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G201" sqref="G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2208,85 +2254,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="4" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -2301,40 +2347,40 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
       <c r="L8" s="16"/>
     </row>
     <row r="10" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="25" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="24" t="s">
         <v>20</v>
       </c>
@@ -2344,21 +2390,21 @@
       <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="47" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="24"/>
       <c r="L11" s="5"/>
     </row>
@@ -2366,21 +2412,21 @@
       <c r="A12" s="13">
         <v>2</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="47" t="s">
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="40"/>
       <c r="K12" s="24"/>
       <c r="L12" s="5"/>
     </row>
@@ -2388,21 +2434,21 @@
       <c r="A13" s="13">
         <v>3</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="47" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="32"/>
+      <c r="H13" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="40"/>
       <c r="K13" s="24"/>
       <c r="L13" s="5"/>
       <c r="M13"/>
@@ -2411,21 +2457,21 @@
       <c r="A14" s="13">
         <v>4</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="47" t="s">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="40"/>
       <c r="K14" s="24"/>
       <c r="L14" s="5"/>
       <c r="M14"/>
@@ -2434,19 +2480,19 @@
       <c r="A15" s="13">
         <v>5</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="47" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="24">
         <v>0.67</v>
       </c>
@@ -2457,19 +2503,19 @@
       <c r="A16" s="13">
         <v>6</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="47" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="26"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="24">
         <v>320.5</v>
       </c>
@@ -2480,19 +2526,19 @@
       <c r="A17" s="13">
         <v>7</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="47" t="s">
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="47"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="24">
         <v>32.299999999999997</v>
       </c>
@@ -2503,19 +2549,19 @@
       <c r="A18" s="13">
         <v>8</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="47" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="47"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="24">
         <v>0.91</v>
       </c>
@@ -2526,19 +2572,19 @@
       <c r="A19" s="13">
         <v>9</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="47" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="47"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="26"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="24">
         <v>0.93</v>
       </c>
@@ -2551,12 +2597,12 @@
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
@@ -2901,1131 +2947,1131 @@
       <c r="L53"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
       <c r="L54"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
+      <c r="A55" s="52"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
       <c r="L55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
       <c r="L56"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
+      <c r="A57" s="52"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
       <c r="L58"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
       <c r="L59"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
       <c r="L60"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
       <c r="L61"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
       <c r="L63"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
       <c r="L64"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
-      <c r="K65" s="28"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
       <c r="L65"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
       <c r="L67"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
       <c r="L68"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
       <c r="L69"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
       <c r="L70"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
+      <c r="A71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
       <c r="L72"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="52"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="52"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
+      <c r="A74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="52"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
       <c r="L75"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
       <c r="L76"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="52"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
       <c r="L77"/>
     </row>
     <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
       <c r="L78"/>
     </row>
     <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="45"/>
-      <c r="F79" s="45"/>
-      <c r="G79" s="45"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="50"/>
+      <c r="J79" s="50"/>
+      <c r="K79" s="50"/>
       <c r="L79"/>
     </row>
     <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="45"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="50"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="50"/>
+      <c r="J80" s="50"/>
+      <c r="K80" s="50"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="45"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="45"/>
-      <c r="F81" s="45"/>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
-      <c r="K81" s="45"/>
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50"/>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="50"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="50"/>
+      <c r="J81" s="50"/>
+      <c r="K81" s="50"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
+      <c r="A84" s="52"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
+      <c r="A85" s="52"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="52"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
+      <c r="H85" s="52"/>
+      <c r="I85" s="52"/>
+      <c r="J85" s="52"/>
+      <c r="K85" s="52"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
+      <c r="A86" s="52"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
       <c r="L86"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
       <c r="L87"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
+      <c r="A88" s="52"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
       <c r="L88"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="52"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
+      <c r="H89" s="52"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
       <c r="L89"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
+      <c r="A90" s="52"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
       <c r="L90"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
+      <c r="A91" s="52"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
       <c r="L91"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
       <c r="L92"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
+      <c r="A93" s="52"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="H93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
       <c r="L93"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
+      <c r="A95" s="52"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="H95" s="52"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="52"/>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
+      <c r="A97" s="52"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="52"/>
       <c r="L97" s="11"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
+      <c r="A99" s="52"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
       <c r="L99" s="16"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
+      <c r="A100" s="52"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
+      <c r="A101" s="52"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
+      <c r="A102" s="52"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
+      <c r="A103" s="52"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
+      <c r="A105" s="52"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="H105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
     </row>
     <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="45" t="s">
+      <c r="A106" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="45"/>
-      <c r="G106" s="45"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="45"/>
-      <c r="J106" s="45"/>
-      <c r="K106" s="45"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="50"/>
+      <c r="H106" s="50"/>
+      <c r="I106" s="50"/>
+      <c r="J106" s="50"/>
+      <c r="K106" s="50"/>
     </row>
     <row r="108" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="30"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="30"/>
-      <c r="H108" s="30"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="30"/>
-      <c r="K108" s="30"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
     </row>
     <row r="109" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="30"/>
-      <c r="K109" s="30"/>
+      <c r="A109" s="42"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="42"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
     </row>
     <row r="110" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
+      <c r="K111" s="44"/>
     </row>
     <row r="112" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="40" t="s">
+      <c r="A113" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40" t="s">
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F113" s="40"/>
-      <c r="G113" s="40" t="s">
+      <c r="F113" s="41"/>
+      <c r="G113" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40" t="s">
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K113" s="40"/>
+      <c r="K113" s="41"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="34" t="s">
+      <c r="A114" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="34"/>
-      <c r="C114" s="34"/>
-      <c r="D114" s="34"/>
-      <c r="E114" s="47" t="s">
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F114" s="47"/>
-      <c r="G114" s="40" t="s">
+      <c r="F114" s="32"/>
+      <c r="G114" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A116" s="40" t="s">
+      <c r="A116" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B116" s="40"/>
-      <c r="C116" s="40"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="40"/>
-      <c r="F116" s="40"/>
-      <c r="G116" s="40"/>
-      <c r="H116" s="40"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="40" t="s">
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K116" s="40"/>
+      <c r="K116" s="41"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="41" t="s">
+      <c r="A117" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B117" s="41"/>
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="42">
+      <c r="B117" s="49"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="49"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="49"/>
+      <c r="J117" s="35">
         <v>5</v>
       </c>
-      <c r="K117" s="44"/>
+      <c r="K117" s="37"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="25">
+      <c r="B118" s="49"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="39">
         <v>0.98</v>
       </c>
-      <c r="K118" s="26"/>
+      <c r="K118" s="40"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="25">
+      <c r="B119" s="49"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="39">
         <v>1.05</v>
       </c>
-      <c r="K119" s="26"/>
+      <c r="K119" s="40"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B120" s="43"/>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
-      <c r="I120" s="44"/>
-      <c r="J120" s="25">
+      <c r="B120" s="36"/>
+      <c r="C120" s="36"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="39">
         <v>1</v>
       </c>
-      <c r="K120" s="26"/>
+      <c r="K120" s="40"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="42" t="s">
+      <c r="A121" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="44"/>
-      <c r="J121" s="25">
+      <c r="B121" s="36"/>
+      <c r="C121" s="36"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="39">
         <v>6</v>
       </c>
-      <c r="K121" s="26"/>
+      <c r="K121" s="40"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="44"/>
-      <c r="J122" s="52" t="s">
+      <c r="B122" s="36"/>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="K122" s="53"/>
+      <c r="K122" s="46"/>
     </row>
     <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A123" s="42" t="s">
+      <c r="A123" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="44"/>
-      <c r="J123" s="25">
+      <c r="B123" s="36"/>
+      <c r="C123" s="36"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="39">
         <v>2700</v>
       </c>
-      <c r="K123" s="26"/>
+      <c r="K123" s="40"/>
     </row>
     <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A124" s="42" t="s">
+      <c r="A124" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="43"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="44"/>
-      <c r="J124" s="25">
+      <c r="B124" s="36"/>
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="39">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K124" s="26"/>
+      <c r="K124" s="40"/>
     </row>
     <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B125" s="43"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="44"/>
-      <c r="J125" s="25">
+      <c r="B125" s="36"/>
+      <c r="C125" s="36"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="39">
         <v>7.5</v>
       </c>
-      <c r="K125" s="26"/>
+      <c r="K125" s="40"/>
     </row>
     <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A126" s="42" t="s">
+      <c r="A126" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
-      <c r="I126" s="44"/>
-      <c r="J126" s="25" t="s">
+      <c r="B126" s="36"/>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="K126" s="26"/>
+      <c r="K126" s="40"/>
     </row>
     <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="42" t="s">
+      <c r="A127" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
-      <c r="I127" s="44"/>
-      <c r="J127" s="25">
+      <c r="B127" s="36"/>
+      <c r="C127" s="36"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="39">
         <v>5</v>
       </c>
-      <c r="K127" s="26"/>
+      <c r="K127" s="40"/>
     </row>
     <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A129" s="55" t="s">
+      <c r="A129" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B129" s="55"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="55"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="55"/>
-      <c r="K129" s="55"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
+      <c r="K129" s="47"/>
     </row>
     <row r="130" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B130" s="43"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="44"/>
-      <c r="J130" s="25">
+      <c r="B130" s="36"/>
+      <c r="C130" s="36"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="39">
         <v>9.5200000000000005E-4</v>
       </c>
-      <c r="K130" s="26"/>
+      <c r="K130" s="40"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
-      <c r="I131" s="44"/>
-      <c r="J131" s="25">
+      <c r="B131" s="36"/>
+      <c r="C131" s="36"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="39">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="K131" s="26"/>
+      <c r="K131" s="40"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="42" t="s">
+      <c r="A132" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
-      <c r="I132" s="44"/>
-      <c r="J132" s="25">
+      <c r="B132" s="36"/>
+      <c r="C132" s="36"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="39">
         <v>1.9E-2</v>
       </c>
-      <c r="K132" s="26"/>
+      <c r="K132" s="40"/>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="42" t="s">
+      <c r="A133" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="44"/>
-      <c r="J133" s="25">
+      <c r="B133" s="36"/>
+      <c r="C133" s="36"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="37"/>
+      <c r="J133" s="39">
         <v>2500</v>
       </c>
-      <c r="K133" s="26"/>
+      <c r="K133" s="40"/>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="42" t="s">
+      <c r="A134" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B134" s="43"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="43"/>
-      <c r="H134" s="43"/>
-      <c r="I134" s="44"/>
-      <c r="J134" s="25">
+      <c r="B134" s="36"/>
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="36"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="37"/>
+      <c r="J134" s="39">
         <v>310</v>
       </c>
-      <c r="K134" s="26"/>
+      <c r="K134" s="40"/>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4052,383 +4098,383 @@
     <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="28"/>
-      <c r="B157" s="28"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="28"/>
-      <c r="F157" s="28"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
+      <c r="A157" s="52"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="52"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="52"/>
+      <c r="F157" s="52"/>
+      <c r="G157" s="52"/>
+      <c r="H157" s="52"/>
+      <c r="I157" s="52"/>
+      <c r="J157" s="52"/>
+      <c r="K157" s="52"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="28"/>
-      <c r="B158" s="28"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="28"/>
-      <c r="F158" s="28"/>
-      <c r="G158" s="28"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="28"/>
+      <c r="A158" s="52"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="52"/>
+      <c r="D158" s="52"/>
+      <c r="E158" s="52"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
+      <c r="H158" s="52"/>
+      <c r="I158" s="52"/>
+      <c r="J158" s="52"/>
+      <c r="K158" s="52"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="28"/>
-      <c r="F159" s="28"/>
-      <c r="G159" s="28"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
+      <c r="A159" s="52"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="52"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="52"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
+      <c r="H159" s="52"/>
+      <c r="I159" s="52"/>
+      <c r="J159" s="52"/>
+      <c r="K159" s="52"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="28"/>
-      <c r="F160" s="28"/>
-      <c r="G160" s="28"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
+      <c r="A160" s="52"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="52"/>
+      <c r="D160" s="52"/>
+      <c r="E160" s="52"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="52"/>
+      <c r="H160" s="52"/>
+      <c r="I160" s="52"/>
+      <c r="J160" s="52"/>
+      <c r="K160" s="52"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="28"/>
-      <c r="F161" s="28"/>
-      <c r="G161" s="28"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
+      <c r="A161" s="52"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="52"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="52"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
+      <c r="H161" s="52"/>
+      <c r="I161" s="52"/>
+      <c r="J161" s="52"/>
+      <c r="K161" s="52"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="28"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="28"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
+      <c r="A162" s="52"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="52"/>
+      <c r="D162" s="52"/>
+      <c r="E162" s="52"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
+      <c r="H162" s="52"/>
+      <c r="I162" s="52"/>
+      <c r="J162" s="52"/>
+      <c r="K162" s="52"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="28"/>
-      <c r="F163" s="28"/>
-      <c r="G163" s="28"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
+      <c r="A163" s="52"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="52"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="52"/>
+      <c r="F163" s="52"/>
+      <c r="G163" s="52"/>
+      <c r="H163" s="52"/>
+      <c r="I163" s="52"/>
+      <c r="J163" s="52"/>
+      <c r="K163" s="52"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="28"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
+      <c r="A164" s="52"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+      <c r="J164" s="52"/>
+      <c r="K164" s="52"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
+      <c r="A165" s="52"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="52"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="52"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="52"/>
+      <c r="H165" s="52"/>
+      <c r="I165" s="52"/>
+      <c r="J165" s="52"/>
+      <c r="K165" s="52"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="28"/>
-      <c r="F166" s="28"/>
-      <c r="G166" s="28"/>
-      <c r="H166" s="28"/>
-      <c r="I166" s="28"/>
-      <c r="J166" s="28"/>
-      <c r="K166" s="28"/>
+      <c r="A166" s="52"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="52"/>
+      <c r="D166" s="52"/>
+      <c r="E166" s="52"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="52"/>
+      <c r="H166" s="52"/>
+      <c r="I166" s="52"/>
+      <c r="J166" s="52"/>
+      <c r="K166" s="52"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="28"/>
-      <c r="F167" s="28"/>
-      <c r="G167" s="28"/>
-      <c r="H167" s="28"/>
-      <c r="I167" s="28"/>
-      <c r="J167" s="28"/>
-      <c r="K167" s="28"/>
+      <c r="A167" s="52"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="52"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="52"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="52"/>
+      <c r="H167" s="52"/>
+      <c r="I167" s="52"/>
+      <c r="J167" s="52"/>
+      <c r="K167" s="52"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="28"/>
-      <c r="F168" s="28"/>
-      <c r="G168" s="28"/>
-      <c r="H168" s="28"/>
-      <c r="I168" s="28"/>
-      <c r="J168" s="28"/>
-      <c r="K168" s="28"/>
+      <c r="A168" s="52"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="52"/>
+      <c r="D168" s="52"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="52"/>
+      <c r="H168" s="52"/>
+      <c r="I168" s="52"/>
+      <c r="J168" s="52"/>
+      <c r="K168" s="52"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-      <c r="H169" s="28"/>
-      <c r="I169" s="28"/>
-      <c r="J169" s="28"/>
-      <c r="K169" s="28"/>
+      <c r="A169" s="52"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="52"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
+      <c r="H169" s="52"/>
+      <c r="I169" s="52"/>
+      <c r="J169" s="52"/>
+      <c r="K169" s="52"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="28"/>
-      <c r="F170" s="28"/>
-      <c r="G170" s="28"/>
-      <c r="H170" s="28"/>
-      <c r="I170" s="28"/>
-      <c r="J170" s="28"/>
-      <c r="K170" s="28"/>
+      <c r="A170" s="52"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="52"/>
+      <c r="D170" s="52"/>
+      <c r="E170" s="52"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="52"/>
+      <c r="H170" s="52"/>
+      <c r="I170" s="52"/>
+      <c r="J170" s="52"/>
+      <c r="K170" s="52"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
-      <c r="E171" s="28"/>
-      <c r="F171" s="28"/>
-      <c r="G171" s="28"/>
-      <c r="H171" s="28"/>
-      <c r="I171" s="28"/>
-      <c r="J171" s="28"/>
-      <c r="K171" s="28"/>
+      <c r="A171" s="52"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="52"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="52"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="52"/>
+      <c r="J171" s="52"/>
+      <c r="K171" s="52"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
-      <c r="E172" s="28"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="28"/>
-      <c r="H172" s="28"/>
-      <c r="I172" s="28"/>
-      <c r="J172" s="28"/>
-      <c r="K172" s="28"/>
+      <c r="A172" s="52"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="52"/>
+      <c r="D172" s="52"/>
+      <c r="E172" s="52"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="52"/>
+      <c r="H172" s="52"/>
+      <c r="I172" s="52"/>
+      <c r="J172" s="52"/>
+      <c r="K172" s="52"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
+      <c r="A173" s="52"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
+      <c r="I173" s="52"/>
+      <c r="J173" s="52"/>
+      <c r="K173" s="52"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-      <c r="H174" s="28"/>
-      <c r="I174" s="28"/>
-      <c r="J174" s="28"/>
-      <c r="K174" s="28"/>
+      <c r="A174" s="52"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="52"/>
+      <c r="D174" s="52"/>
+      <c r="E174" s="52"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
+      <c r="H174" s="52"/>
+      <c r="I174" s="52"/>
+      <c r="J174" s="52"/>
+      <c r="K174" s="52"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-      <c r="H175" s="28"/>
-      <c r="I175" s="28"/>
-      <c r="J175" s="28"/>
-      <c r="K175" s="28"/>
+      <c r="A175" s="52"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="52"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="52"/>
+      <c r="F175" s="52"/>
+      <c r="G175" s="52"/>
+      <c r="H175" s="52"/>
+      <c r="I175" s="52"/>
+      <c r="J175" s="52"/>
+      <c r="K175" s="52"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="28"/>
-      <c r="B176" s="28"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
-      <c r="E176" s="28"/>
-      <c r="F176" s="28"/>
-      <c r="G176" s="28"/>
-      <c r="H176" s="28"/>
-      <c r="I176" s="28"/>
-      <c r="J176" s="28"/>
-      <c r="K176" s="28"/>
+      <c r="A176" s="52"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="52"/>
+      <c r="D176" s="52"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="52"/>
+      <c r="H176" s="52"/>
+      <c r="I176" s="52"/>
+      <c r="J176" s="52"/>
+      <c r="K176" s="52"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-      <c r="H177" s="28"/>
-      <c r="I177" s="28"/>
-      <c r="J177" s="28"/>
-      <c r="K177" s="28"/>
+      <c r="A177" s="52"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="52"/>
+      <c r="F177" s="52"/>
+      <c r="G177" s="52"/>
+      <c r="H177" s="52"/>
+      <c r="I177" s="52"/>
+      <c r="J177" s="52"/>
+      <c r="K177" s="52"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="28"/>
+      <c r="A178" s="52"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="52"/>
+      <c r="D178" s="52"/>
+      <c r="E178" s="52"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="52"/>
+      <c r="H178" s="52"/>
+      <c r="I178" s="52"/>
+      <c r="J178" s="52"/>
+      <c r="K178" s="52"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="28"/>
+      <c r="A179" s="52"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="52"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="52"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="52"/>
+      <c r="H179" s="52"/>
+      <c r="I179" s="52"/>
+      <c r="J179" s="52"/>
+      <c r="K179" s="52"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="28"/>
+      <c r="A180" s="52"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="52"/>
+      <c r="D180" s="52"/>
+      <c r="E180" s="52"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
+      <c r="H180" s="52"/>
+      <c r="I180" s="52"/>
+      <c r="J180" s="52"/>
+      <c r="K180" s="52"/>
     </row>
     <row r="181" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
-      <c r="G181" s="28"/>
-      <c r="H181" s="28"/>
-      <c r="I181" s="28"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="28"/>
+      <c r="A181" s="52"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="52"/>
     </row>
     <row r="182" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="56" t="s">
+      <c r="A182" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B182" s="56"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="56"/>
-      <c r="G182" s="56"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="56"/>
-      <c r="K182" s="56"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="48"/>
+      <c r="I182" s="48"/>
+      <c r="J182" s="48"/>
+      <c r="K182" s="48"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="30" t="s">
+      <c r="A184" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="30"/>
-      <c r="E184" s="30"/>
-      <c r="F184" s="30"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="30"/>
-      <c r="I184" s="30"/>
-      <c r="J184" s="30"/>
-      <c r="K184" s="30"/>
+      <c r="B184" s="42"/>
+      <c r="C184" s="42"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="42"/>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="30"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="30"/>
-      <c r="D185" s="30"/>
-      <c r="E185" s="30"/>
-      <c r="F185" s="30"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="30"/>
-      <c r="I185" s="30"/>
-      <c r="J185" s="30"/>
-      <c r="K185" s="30"/>
+      <c r="A185" s="42"/>
+      <c r="B185" s="42"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="42"/>
+      <c r="I185" s="42"/>
+      <c r="J185" s="42"/>
+      <c r="K185" s="42"/>
     </row>
     <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="31" t="s">
+      <c r="A186" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B186" s="31"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="31"/>
-      <c r="G186" s="31"/>
+      <c r="B186" s="54"/>
+      <c r="C186" s="54"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="54"/>
+      <c r="F186" s="54"/>
+      <c r="G186" s="54"/>
       <c r="H186" s="18">
         <v>1</v>
       </c>
@@ -4436,15 +4482,15 @@
       <c r="K186" s="19"/>
     </row>
     <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="31" t="s">
+      <c r="A187" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B187" s="31"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="31"/>
-      <c r="E187" s="31"/>
-      <c r="F187" s="31"/>
-      <c r="G187" s="31"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="54"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="54"/>
+      <c r="F187" s="54"/>
+      <c r="G187" s="54"/>
       <c r="H187" s="17">
         <v>2000</v>
       </c>
@@ -4455,18 +4501,18 @@
       <c r="A189" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="32" t="s">
+      <c r="B189" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C189" s="32"/>
-      <c r="D189" s="32"/>
-      <c r="E189" s="32"/>
-      <c r="F189" s="32"/>
-      <c r="G189" s="32"/>
-      <c r="H189" s="32" t="s">
+      <c r="C189" s="55"/>
+      <c r="D189" s="55"/>
+      <c r="E189" s="55"/>
+      <c r="F189" s="55"/>
+      <c r="G189" s="55"/>
+      <c r="H189" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="I189" s="32"/>
+      <c r="I189" s="55"/>
       <c r="J189" s="18" t="s">
         <v>20</v>
       </c>
@@ -4478,16 +4524,16 @@
       <c r="A190" s="13">
         <v>1</v>
       </c>
-      <c r="B190" s="32" t="s">
+      <c r="B190" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C190" s="32"/>
-      <c r="D190" s="32"/>
-      <c r="E190" s="32"/>
-      <c r="F190" s="32"/>
-      <c r="G190" s="32"/>
-      <c r="H190" s="32"/>
-      <c r="I190" s="32"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="55"/>
+      <c r="G190" s="55"/>
+      <c r="H190" s="55"/>
+      <c r="I190" s="55"/>
       <c r="J190" s="18"/>
       <c r="K190" s="18"/>
     </row>
@@ -4495,16 +4541,16 @@
       <c r="A191" s="13">
         <v>2</v>
       </c>
-      <c r="B191" s="33" t="s">
+      <c r="B191" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="33"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
+      <c r="C191" s="56"/>
+      <c r="D191" s="56"/>
+      <c r="E191" s="56"/>
+      <c r="F191" s="56"/>
+      <c r="G191" s="56"/>
+      <c r="H191" s="55"/>
+      <c r="I191" s="55"/>
       <c r="J191" s="18"/>
       <c r="K191" s="18"/>
     </row>
@@ -4512,16 +4558,16 @@
       <c r="A192" s="13">
         <v>3</v>
       </c>
-      <c r="B192" s="32" t="s">
+      <c r="B192" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C192" s="32"/>
-      <c r="D192" s="32"/>
-      <c r="E192" s="32"/>
-      <c r="F192" s="32"/>
-      <c r="G192" s="32"/>
-      <c r="H192" s="32"/>
-      <c r="I192" s="32"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="55"/>
+      <c r="G192" s="55"/>
+      <c r="H192" s="55"/>
+      <c r="I192" s="55"/>
       <c r="J192" s="18"/>
       <c r="K192" s="18"/>
     </row>
@@ -4529,16 +4575,16 @@
       <c r="A193" s="13">
         <v>4</v>
       </c>
-      <c r="B193" s="32" t="s">
+      <c r="B193" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
-      <c r="F193" s="32"/>
-      <c r="G193" s="32"/>
-      <c r="H193" s="32"/>
-      <c r="I193" s="32"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="55"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="55"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="55"/>
       <c r="J193" s="18"/>
       <c r="K193" s="18"/>
     </row>
@@ -4546,31 +4592,31 @@
       <c r="A194" s="13">
         <v>5</v>
       </c>
-      <c r="B194" s="33" t="s">
+      <c r="B194" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
-      <c r="F194" s="33"/>
-      <c r="G194" s="33"/>
-      <c r="H194" s="32"/>
-      <c r="I194" s="32"/>
+      <c r="C194" s="56"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="56"/>
+      <c r="F194" s="56"/>
+      <c r="G194" s="56"/>
+      <c r="H194" s="55"/>
+      <c r="I194" s="55"/>
       <c r="J194" s="18"/>
       <c r="K194" s="18"/>
     </row>
     <row r="195" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="32" t="s">
+      <c r="A195" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B195" s="32"/>
-      <c r="C195" s="32"/>
-      <c r="D195" s="32"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
+      <c r="B195" s="55"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
       <c r="J195" s="18"/>
       <c r="K195" s="18">
         <f>SUM(K190:K194)</f>
@@ -4591,13 +4637,13 @@
       <c r="K196" s="14"/>
     </row>
     <row r="197" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A197" s="29" t="s">
+      <c r="A197" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="53"/>
       <c r="F197" s="20">
         <f>SUMPRODUCT(J190:J194,K190:K194)</f>
         <v>0</v>
@@ -4608,349 +4654,396 @@
       <c r="K197" s="14"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="30" t="s">
+      <c r="A206" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="30"/>
-      <c r="I206" s="30"/>
-      <c r="J206" s="30"/>
-      <c r="K206" s="30"/>
+      <c r="B206" s="42"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="42"/>
+      <c r="G206" s="42"/>
+      <c r="H206" s="42"/>
+      <c r="I206" s="42"/>
+      <c r="J206" s="42"/>
+      <c r="K206" s="42"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="30"/>
-      <c r="B207" s="30"/>
-      <c r="C207" s="30"/>
-      <c r="D207" s="30"/>
-      <c r="E207" s="30"/>
-      <c r="F207" s="30"/>
-      <c r="G207" s="30"/>
-      <c r="H207" s="30"/>
-      <c r="I207" s="30"/>
-      <c r="J207" s="30"/>
-      <c r="K207" s="30"/>
+      <c r="A207" s="42"/>
+      <c r="B207" s="42"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
+      <c r="E207" s="42"/>
+      <c r="F207" s="42"/>
+      <c r="G207" s="42"/>
+      <c r="H207" s="42"/>
+      <c r="I207" s="42"/>
+      <c r="J207" s="42"/>
+      <c r="K207" s="42"/>
     </row>
     <row r="209" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B209" s="47" t="s">
+      <c r="B209" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C209" s="47"/>
-      <c r="D209" s="47"/>
-      <c r="E209" s="47"/>
-      <c r="F209" s="47" t="s">
+      <c r="C209" s="32"/>
+      <c r="D209" s="32"/>
+      <c r="E209" s="32"/>
+      <c r="F209" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G209" s="47"/>
-      <c r="H209" s="47" t="s">
+      <c r="G209" s="32"/>
+      <c r="H209" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I209" s="47"/>
-      <c r="J209" s="47" t="s">
+      <c r="I209" s="32"/>
+      <c r="J209" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K209" s="47"/>
-    </row>
-    <row r="210" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="K209" s="32"/>
+    </row>
+    <row r="210" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="13">
         <v>1</v>
       </c>
-      <c r="B210" s="34" t="s">
+      <c r="B210" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C210" s="34"/>
-      <c r="D210" s="34"/>
-      <c r="E210" s="34"/>
-      <c r="F210" s="48"/>
-      <c r="G210" s="49"/>
-      <c r="H210" s="48"/>
-      <c r="I210" s="49"/>
-      <c r="J210" s="48"/>
-      <c r="K210" s="49"/>
-    </row>
-    <row r="211" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C210" s="38"/>
+      <c r="D210" s="38"/>
+      <c r="E210" s="38"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="66"/>
+      <c r="K210" s="67"/>
+    </row>
+    <row r="211" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13">
         <v>2</v>
       </c>
-      <c r="B211" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C211" s="34"/>
-      <c r="D211" s="34"/>
-      <c r="E211" s="34"/>
-      <c r="F211" s="50"/>
-      <c r="G211" s="51"/>
-      <c r="H211" s="50"/>
-      <c r="I211" s="51"/>
-      <c r="J211" s="50"/>
-      <c r="K211" s="51"/>
-    </row>
-    <row r="212" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B211" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" s="38"/>
+      <c r="D211" s="38"/>
+      <c r="E211" s="38"/>
+      <c r="F211" s="26"/>
+      <c r="G211" s="27"/>
+      <c r="H211" s="26"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="26"/>
+      <c r="K211" s="27"/>
+    </row>
+    <row r="212" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13">
         <v>3</v>
       </c>
-      <c r="B212" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C212" s="34"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="34"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="49"/>
-      <c r="H212" s="48"/>
-      <c r="I212" s="49"/>
-      <c r="J212" s="48"/>
-      <c r="K212" s="49"/>
-    </row>
-    <row r="213" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B212" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C212" s="38"/>
+      <c r="D212" s="38"/>
+      <c r="E212" s="38"/>
+      <c r="F212" s="30"/>
+      <c r="G212" s="31"/>
+      <c r="H212" s="30"/>
+      <c r="I212" s="31"/>
+      <c r="J212" s="30"/>
+      <c r="K212" s="31"/>
+    </row>
+    <row r="213" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13">
         <v>4</v>
       </c>
-      <c r="B213" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C213" s="34"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="34"/>
-      <c r="F213" s="48"/>
-      <c r="G213" s="49"/>
-      <c r="H213" s="48"/>
-      <c r="I213" s="49"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="49"/>
-    </row>
-    <row r="214" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B213" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C213" s="38"/>
+      <c r="D213" s="38"/>
+      <c r="E213" s="38"/>
+      <c r="F213" s="26"/>
+      <c r="G213" s="27"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="26"/>
+      <c r="K213" s="27"/>
+    </row>
+    <row r="214" spans="1:11" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="13">
         <v>5</v>
       </c>
-      <c r="B214" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C214" s="34"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="34"/>
-      <c r="F214" s="36"/>
-      <c r="G214" s="37"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="36"/>
-      <c r="K214" s="37"/>
-    </row>
-    <row r="215" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B214" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C214" s="38"/>
+      <c r="D214" s="38"/>
+      <c r="E214" s="38"/>
+      <c r="F214" s="26"/>
+      <c r="G214" s="27"/>
+      <c r="H214" s="26"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="26"/>
+      <c r="K214" s="27"/>
+    </row>
+    <row r="215" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13">
         <v>6</v>
       </c>
-      <c r="B215" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C215" s="34"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="34"/>
-      <c r="F215" s="36"/>
-      <c r="G215" s="37"/>
-      <c r="H215" s="36"/>
-      <c r="I215" s="37"/>
-      <c r="J215" s="36"/>
-      <c r="K215" s="37"/>
-    </row>
-    <row r="216" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B215" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38"/>
+      <c r="E215" s="38"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="34"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="34"/>
+      <c r="J215" s="33"/>
+      <c r="K215" s="34"/>
+    </row>
+    <row r="216" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13">
         <v>7</v>
       </c>
-      <c r="B216" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C216" s="34"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="34"/>
-      <c r="F216" s="35"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="35"/>
-      <c r="I216" s="35"/>
-      <c r="J216" s="35"/>
-      <c r="K216" s="35"/>
-    </row>
-    <row r="217" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B216" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="38"/>
+      <c r="D216" s="38"/>
+      <c r="E216" s="38"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="33"/>
+      <c r="K216" s="34"/>
+    </row>
+    <row r="217" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="13">
         <v>8</v>
       </c>
-      <c r="B217" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="35"/>
-      <c r="G217" s="35"/>
-      <c r="H217" s="35"/>
-      <c r="I217" s="35"/>
-      <c r="J217" s="35"/>
-      <c r="K217" s="35"/>
-    </row>
-    <row r="218" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B217" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C217" s="38"/>
+      <c r="D217" s="38"/>
+      <c r="E217" s="38"/>
+      <c r="F217" s="29"/>
+      <c r="G217" s="29"/>
+      <c r="H217" s="29"/>
+      <c r="I217" s="29"/>
+      <c r="J217" s="29"/>
+      <c r="K217" s="29"/>
+    </row>
+    <row r="218" spans="1:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="13">
         <v>9</v>
       </c>
-      <c r="B218" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C218" s="34"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="34"/>
-      <c r="F218" s="35"/>
-      <c r="G218" s="35"/>
-      <c r="H218" s="35"/>
-      <c r="I218" s="35"/>
-      <c r="J218" s="35"/>
-      <c r="K218" s="35"/>
-    </row>
-    <row r="219" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B218" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C218" s="38"/>
+      <c r="D218" s="38"/>
+      <c r="E218" s="38"/>
+      <c r="F218" s="29"/>
+      <c r="G218" s="29"/>
+      <c r="H218" s="29"/>
+      <c r="I218" s="29"/>
+      <c r="J218" s="29"/>
+      <c r="K218" s="29"/>
+    </row>
+    <row r="219" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="13">
         <v>10</v>
       </c>
-      <c r="B219" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C219" s="34"/>
-      <c r="D219" s="34"/>
-      <c r="E219" s="34"/>
-      <c r="F219" s="57"/>
-      <c r="G219" s="57"/>
-      <c r="H219" s="57"/>
-      <c r="I219" s="57"/>
-      <c r="J219" s="57"/>
-      <c r="K219" s="57"/>
-    </row>
-    <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B219" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38"/>
+      <c r="E219" s="38"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="29"/>
+      <c r="H219" s="29"/>
+      <c r="I219" s="29"/>
+      <c r="J219" s="29"/>
+      <c r="K219" s="29"/>
+    </row>
+    <row r="220" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="13">
         <v>11</v>
       </c>
-      <c r="B220" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C220" s="34"/>
-      <c r="D220" s="34"/>
-      <c r="E220" s="34"/>
-      <c r="F220" s="57"/>
-      <c r="G220" s="57"/>
-      <c r="H220" s="57"/>
-      <c r="I220" s="57"/>
-      <c r="J220" s="57"/>
-      <c r="K220" s="57"/>
-    </row>
-    <row r="221" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B220" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38"/>
+      <c r="E220" s="38"/>
+      <c r="F220" s="28"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="28"/>
+      <c r="I220" s="28"/>
+      <c r="J220" s="28"/>
+      <c r="K220" s="28"/>
+    </row>
+    <row r="221" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="13">
         <v>12</v>
       </c>
-      <c r="B221" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C221" s="34"/>
-      <c r="D221" s="34"/>
-      <c r="E221" s="34"/>
-      <c r="F221" s="48"/>
-      <c r="G221" s="49"/>
-      <c r="H221" s="48"/>
-      <c r="I221" s="49"/>
-      <c r="J221" s="48"/>
-      <c r="K221" s="49"/>
-    </row>
-    <row r="222" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B221" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+    </row>
+    <row r="222" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="13">
         <v>13</v>
       </c>
-      <c r="B222" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C222" s="34"/>
-      <c r="D222" s="34"/>
-      <c r="E222" s="34"/>
-      <c r="F222" s="48"/>
-      <c r="G222" s="49"/>
-      <c r="H222" s="48"/>
-      <c r="I222" s="49"/>
-      <c r="J222" s="48"/>
-      <c r="K222" s="49"/>
-    </row>
-    <row r="223" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B222" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38"/>
+      <c r="E222" s="38"/>
+      <c r="F222" s="26"/>
+      <c r="G222" s="27"/>
+      <c r="H222" s="26"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="26"/>
+      <c r="K222" s="27"/>
+    </row>
+    <row r="223" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="13">
         <v>14</v>
       </c>
-      <c r="B223" s="34" t="s">
+      <c r="B223" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38"/>
+      <c r="E223" s="38"/>
+      <c r="F223" s="26"/>
+      <c r="G223" s="27"/>
+      <c r="H223" s="26"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="26"/>
+      <c r="K223" s="27"/>
+    </row>
+    <row r="224" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="65">
+        <v>15</v>
+      </c>
+      <c r="B224" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C223" s="34"/>
-      <c r="D223" s="34"/>
-      <c r="E223" s="34"/>
-      <c r="F223" s="48"/>
-      <c r="G223" s="49"/>
-      <c r="H223" s="48"/>
-      <c r="I223" s="49"/>
-      <c r="J223" s="48"/>
-      <c r="K223" s="49"/>
+      <c r="C224" s="38"/>
+      <c r="D224" s="38"/>
+      <c r="E224" s="38"/>
+      <c r="F224" s="26"/>
+      <c r="G224" s="27"/>
+      <c r="H224" s="26"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="26"/>
+      <c r="K224" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="F223:G223"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="F221:G221"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="H219:I219"/>
+  <mergeCells count="173">
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="B192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="B194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="A79:K81"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A108:K109"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A82:K105"/>
+    <mergeCell ref="A54:K78"/>
+    <mergeCell ref="A206:K207"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="A182:K182"/>
+    <mergeCell ref="A111:K111"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="B213:E213"/>
     <mergeCell ref="H217:I217"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="A116:I116"/>
+    <mergeCell ref="A117:I117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="A157:K181"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A184:K185"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="A187:G187"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="B190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="B224:E224"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="F209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="F211:G211"/>
+    <mergeCell ref="H211:I211"/>
     <mergeCell ref="H212:I212"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F213:G213"/>
     <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="A131:I131"/>
-    <mergeCell ref="A132:I132"/>
-    <mergeCell ref="A133:I133"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="A123:I123"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="E113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A124:I124"/>
-    <mergeCell ref="A125:I125"/>
-    <mergeCell ref="A126:I126"/>
-    <mergeCell ref="A127:I127"/>
-    <mergeCell ref="A130:I130"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B209:E209"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="F10:G10"/>
@@ -4967,44 +5060,23 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="G6:K6"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="F209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="F211:G211"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B209:E209"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="E113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A124:I124"/>
+    <mergeCell ref="A125:I125"/>
+    <mergeCell ref="A126:I126"/>
+    <mergeCell ref="A127:I127"/>
+    <mergeCell ref="A130:I130"/>
     <mergeCell ref="J125:K125"/>
     <mergeCell ref="J126:K126"/>
     <mergeCell ref="J127:K127"/>
     <mergeCell ref="J130:K130"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B222:E222"/>
     <mergeCell ref="J116:K116"/>
     <mergeCell ref="J117:K117"/>
     <mergeCell ref="J118:K118"/>
@@ -5014,59 +5086,54 @@
     <mergeCell ref="J122:K122"/>
     <mergeCell ref="J123:K123"/>
     <mergeCell ref="J124:K124"/>
+    <mergeCell ref="A129:K129"/>
+    <mergeCell ref="A131:I131"/>
+    <mergeCell ref="A132:I132"/>
+    <mergeCell ref="A133:I133"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="A123:I123"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="J134:K134"/>
     <mergeCell ref="A134:I134"/>
-    <mergeCell ref="A129:K129"/>
-    <mergeCell ref="A206:K207"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F216:G216"/>
     <mergeCell ref="J210:K210"/>
-    <mergeCell ref="A182:K182"/>
-    <mergeCell ref="A111:K111"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A116:I116"/>
-    <mergeCell ref="A117:I117"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A79:K81"/>
-    <mergeCell ref="A106:K106"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A108:K109"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A82:K105"/>
-    <mergeCell ref="A54:K78"/>
-    <mergeCell ref="A157:K181"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A184:K185"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="A187:G187"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="B190:G190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="B192:G192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="B194:G194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="A195:G195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="F223:G223"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F221:G221"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="H218:I218"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="3">
@@ -5176,85 +5243,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -5269,236 +5336,236 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="G10" s="52"/>
+      <c r="H10" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28" t="s">
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="46" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="46" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>3</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="46" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="46" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="46" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>6</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="46" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>7</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="46" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>8</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="46" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>9</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="46" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
       <c r="F21" s="1">
         <v>1000</v>
       </c>
@@ -5601,62 +5668,62 @@
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="str">
+      <c r="A31" s="61" t="str">
         <f>"Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят "&amp;C25&amp;" млрд м3, с вероятностью 50% - "&amp;C27&amp;" млрд м3,  с вероятностью 10% - "&amp;C29&amp;" млрд м3"</f>
         <v>Выводы: по сценариям Р90, Р50, Р10 получилось, что с вероятностью 90% начальные геологические запасы газа составят 6655,5 млрд м3, с вероятностью 50% - 8530,8 млрд м3,  с вероятностью 10% - 10406,1 млрд м3</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5819,262 +5886,262 @@
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
       <c r="L48"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
       <c r="L49"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
       <c r="L50"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
       <c r="L51"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="59"/>
-      <c r="K52" s="59"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
       <c r="L52"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="59"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
       <c r="L53"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="59"/>
-      <c r="K54" s="59"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
       <c r="L54"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
       <c r="L55"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
       <c r="L56"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="59"/>
-      <c r="K57" s="59"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
       <c r="L57"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
       <c r="L58"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="62"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="62"/>
       <c r="L59"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
       <c r="L60"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
       <c r="L61"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
       <c r="L63"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
       <c r="L64"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
       <c r="L65"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
       <c r="L66"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
       <c r="L67"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -6091,44 +6158,44 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="50"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="50"/>
       <c r="L69"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="50"/>
       <c r="L70"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="45"/>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="50"/>
       <c r="L71"/>
     </row>
     <row r="72" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
@@ -6158,120 +6225,120 @@
       <c r="L73"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
       <c r="L74"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
       <c r="L75"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="59"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="59"/>
-      <c r="K76" s="59"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
       <c r="L76"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="59"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="59"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="59"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="59"/>
-      <c r="K77" s="59"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
       <c r="L77"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="59"/>
-      <c r="I78" s="59"/>
-      <c r="J78" s="59"/>
-      <c r="K78" s="59"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
       <c r="L78"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="59"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="59"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="59"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="59"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
+      <c r="B79" s="62"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
       <c r="L79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="59"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
+      <c r="B80" s="62"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="59"/>
-      <c r="E81" s="59"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="59"/>
-      <c r="I81" s="59"/>
-      <c r="J81" s="59"/>
-      <c r="K81" s="59"/>
+      <c r="B81" s="62"/>
+      <c r="C81" s="62"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="59"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="59"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="59"/>
-      <c r="K82" s="59"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -6288,18 +6355,18 @@
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="45" t="s">
+      <c r="B84" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="45"/>
-      <c r="J84" s="45"/>
-      <c r="K84" s="45"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="50"/>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -6446,360 +6513,360 @@
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="30"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
       <c r="L97" s="11"/>
     </row>
     <row r="99" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="58" t="s">
+      <c r="A99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
-      <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
     </row>
     <row r="101" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="40" t="s">
+      <c r="A101" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40" t="s">
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F101" s="40"/>
-      <c r="G101" s="40" t="s">
+      <c r="F101" s="41"/>
+      <c r="G101" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40" t="s">
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K101" s="40"/>
+      <c r="K101" s="41"/>
     </row>
     <row r="102" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="34" t="s">
+      <c r="A102" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="47" t="s">
+      <c r="B102" s="38"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38"/>
+      <c r="E102" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F102" s="47"/>
-      <c r="G102" s="40"/>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="40"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
     </row>
     <row r="104" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
+      <c r="A104" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40" t="s">
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="K104" s="40"/>
+      <c r="K104" s="41"/>
     </row>
     <row r="105" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
+      <c r="A105" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="41"/>
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="44"/>
+      <c r="B105" s="49"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="49"/>
+      <c r="G105" s="49"/>
+      <c r="H105" s="49"/>
+      <c r="I105" s="49"/>
+      <c r="J105" s="35"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="41" t="s">
+      <c r="A106" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="41"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="26"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="49"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="49"/>
+      <c r="G106" s="49"/>
+      <c r="H106" s="49"/>
+      <c r="I106" s="49"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="40"/>
     </row>
     <row r="107" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="41" t="s">
+      <c r="A107" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="41"/>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="26"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="49"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="49"/>
+      <c r="G107" s="49"/>
+      <c r="H107" s="49"/>
+      <c r="I107" s="49"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="40"/>
     </row>
     <row r="108" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B108" s="41"/>
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="26"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="49"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="49"/>
+      <c r="G108" s="49"/>
+      <c r="H108" s="49"/>
+      <c r="I108" s="49"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="40"/>
     </row>
     <row r="109" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="41" t="s">
+      <c r="A109" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B109" s="41"/>
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="26"/>
+      <c r="B109" s="49"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="49"/>
+      <c r="H109" s="49"/>
+      <c r="I109" s="49"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="40"/>
     </row>
     <row r="110" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B110" s="41"/>
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="26"/>
+      <c r="B110" s="49"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="49"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="49"/>
+      <c r="G110" s="49"/>
+      <c r="H110" s="49"/>
+      <c r="I110" s="49"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="40"/>
     </row>
     <row r="111" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="41" t="s">
+      <c r="A111" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B111" s="41"/>
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="26"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="49"/>
+      <c r="G111" s="49"/>
+      <c r="H111" s="49"/>
+      <c r="I111" s="49"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="40"/>
     </row>
     <row r="112" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="41" t="s">
+      <c r="A112" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="B112" s="41"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="26"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="49"/>
+      <c r="G112" s="49"/>
+      <c r="H112" s="49"/>
+      <c r="I112" s="49"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="40"/>
     </row>
     <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="41" t="s">
+      <c r="A113" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="26"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="49"/>
+      <c r="D113" s="49"/>
+      <c r="E113" s="49"/>
+      <c r="F113" s="49"/>
+      <c r="G113" s="49"/>
+      <c r="H113" s="49"/>
+      <c r="I113" s="49"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="40"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="41" t="s">
+      <c r="A114" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B114" s="41"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="26"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="40"/>
     </row>
     <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A115" s="41" t="s">
+      <c r="A115" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B115" s="41"/>
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="26"/>
+      <c r="B115" s="49"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="40"/>
     </row>
     <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="55" t="s">
+      <c r="A117" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B117" s="55"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="55"/>
-      <c r="H117" s="55"/>
-      <c r="I117" s="55"/>
-      <c r="J117" s="55"/>
-      <c r="K117" s="55"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="47"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
+      <c r="K117" s="47"/>
     </row>
     <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
+      <c r="B118" s="49"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="49"/>
+      <c r="H118" s="49"/>
+      <c r="I118" s="49"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
     </row>
     <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A119" s="41" t="s">
+      <c r="A119" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="B119" s="41"/>
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="40"/>
-      <c r="K119" s="40"/>
+      <c r="B119" s="49"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="49"/>
+      <c r="H119" s="49"/>
+      <c r="I119" s="49"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
     </row>
     <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A120" s="41" t="s">
+      <c r="A120" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B120" s="41"/>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="49"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+      <c r="I120" s="49"/>
+      <c r="J120" s="41"/>
+      <c r="K120" s="41"/>
     </row>
     <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A121" s="41" t="s">
+      <c r="A121" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B121" s="41"/>
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="40"/>
-      <c r="K121" s="40"/>
+      <c r="B121" s="49"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="49"/>
+      <c r="G121" s="49"/>
+      <c r="H121" s="49"/>
+      <c r="I121" s="49"/>
+      <c r="J121" s="41"/>
+      <c r="K121" s="41"/>
     </row>
     <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B122" s="41"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="40"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="49"/>
+      <c r="G122" s="49"/>
+      <c r="H122" s="49"/>
+      <c r="I122" s="49"/>
+      <c r="J122" s="41"/>
+      <c r="K122" s="41"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="9"/>
@@ -6816,152 +6883,152 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="9"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="9"/>
-      <c r="B125" s="62"/>
-      <c r="C125" s="62"/>
-      <c r="D125" s="62"/>
-      <c r="E125" s="62"/>
-      <c r="F125" s="62"/>
-      <c r="G125" s="62"/>
-      <c r="H125" s="62"/>
-      <c r="I125" s="62"/>
-      <c r="J125" s="62"/>
-      <c r="K125" s="62"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="59"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="59"/>
+      <c r="I125" s="59"/>
+      <c r="J125" s="59"/>
+      <c r="K125" s="59"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="9"/>
-      <c r="B126" s="62"/>
-      <c r="C126" s="62"/>
-      <c r="D126" s="62"/>
-      <c r="E126" s="62"/>
-      <c r="F126" s="62"/>
-      <c r="G126" s="62"/>
-      <c r="H126" s="62"/>
-      <c r="I126" s="62"/>
-      <c r="J126" s="62"/>
-      <c r="K126" s="62"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="59"/>
+      <c r="E126" s="59"/>
+      <c r="F126" s="59"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="59"/>
+      <c r="K126" s="59"/>
     </row>
     <row r="127" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="62"/>
-      <c r="C127" s="62"/>
-      <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="62"/>
-      <c r="H127" s="62"/>
-      <c r="I127" s="62"/>
-      <c r="J127" s="62"/>
-      <c r="K127" s="62"/>
+      <c r="B127" s="59"/>
+      <c r="C127" s="59"/>
+      <c r="D127" s="59"/>
+      <c r="E127" s="59"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="59"/>
+      <c r="K127" s="59"/>
     </row>
     <row r="128" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="62"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="59"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B129" s="62"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="59"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B130" s="62"/>
-      <c r="C130" s="62"/>
-      <c r="D130" s="62"/>
-      <c r="E130" s="62"/>
-      <c r="F130" s="62"/>
-      <c r="G130" s="62"/>
-      <c r="H130" s="62"/>
-      <c r="I130" s="62"/>
-      <c r="J130" s="62"/>
-      <c r="K130" s="62"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="59"/>
+      <c r="D130" s="59"/>
+      <c r="E130" s="59"/>
+      <c r="F130" s="59"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="59"/>
+      <c r="K130" s="59"/>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="62"/>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
-      <c r="H131" s="62"/>
-      <c r="I131" s="62"/>
-      <c r="J131" s="62"/>
-      <c r="K131" s="62"/>
+      <c r="B131" s="59"/>
+      <c r="C131" s="59"/>
+      <c r="D131" s="59"/>
+      <c r="E131" s="59"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="59"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="59"/>
+      <c r="K131" s="59"/>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="62"/>
-      <c r="H132" s="62"/>
-      <c r="I132" s="62"/>
-      <c r="J132" s="62"/>
-      <c r="K132" s="62"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="59"/>
+      <c r="D132" s="59"/>
+      <c r="E132" s="59"/>
+      <c r="F132" s="59"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="59"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="59"/>
+      <c r="K132" s="59"/>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="62"/>
-      <c r="C133" s="62"/>
-      <c r="D133" s="62"/>
-      <c r="E133" s="62"/>
-      <c r="F133" s="62"/>
-      <c r="G133" s="62"/>
-      <c r="H133" s="62"/>
-      <c r="I133" s="62"/>
-      <c r="J133" s="62"/>
-      <c r="K133" s="62"/>
+      <c r="B133" s="59"/>
+      <c r="C133" s="59"/>
+      <c r="D133" s="59"/>
+      <c r="E133" s="59"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="59"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="59"/>
+      <c r="K133" s="59"/>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="62"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="62"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="56" t="s">
+      <c r="B135" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="56"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="56"/>
-      <c r="F135" s="56"/>
-      <c r="G135" s="56"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="56"/>
-      <c r="J135" s="56"/>
-      <c r="K135" s="56"/>
+      <c r="C135" s="48"/>
+      <c r="D135" s="48"/>
+      <c r="E135" s="48"/>
+      <c r="F135" s="48"/>
+      <c r="G135" s="48"/>
+      <c r="H135" s="48"/>
+      <c r="I135" s="48"/>
+      <c r="J135" s="48"/>
+      <c r="K135" s="48"/>
     </row>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="14"/>
@@ -6976,33 +7043,33 @@
       <c r="K136" s="14"/>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="30" t="s">
+      <c r="A137" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
+      <c r="B137" s="42"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="42"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="42"/>
+      <c r="K137" s="42"/>
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="42"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="42"/>
+      <c r="K138" s="42"/>
       <c r="L138" s="11"/>
     </row>
     <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7010,395 +7077,277 @@
       <c r="A140" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="47" t="s">
+      <c r="B140" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C140" s="47"/>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47" t="s">
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47" t="s">
+      <c r="G140" s="32"/>
+      <c r="H140" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I140" s="47"/>
-      <c r="J140" s="47" t="s">
+      <c r="I140" s="32"/>
+      <c r="J140" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="K140" s="47"/>
+      <c r="K140" s="32"/>
     </row>
     <row r="141" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="13">
         <v>1</v>
       </c>
-      <c r="B141" s="34" t="s">
+      <c r="B141" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="61"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="26"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="57"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="40"/>
     </row>
     <row r="142" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="13">
         <v>2</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="34"/>
-      <c r="F142" s="25"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="26"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="26"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="40"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="40"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="40"/>
     </row>
     <row r="143" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="13">
         <v>3</v>
       </c>
-      <c r="B143" s="34" t="s">
+      <c r="B143" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="34"/>
-      <c r="E143" s="34"/>
-      <c r="F143" s="25"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="26"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="40"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="40"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="40"/>
     </row>
     <row r="144" spans="1:12" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="13">
         <v>4</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C144" s="34"/>
-      <c r="D144" s="34"/>
-      <c r="E144" s="34"/>
-      <c r="F144" s="25"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="26"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="40"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="40"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="40"/>
     </row>
     <row r="145" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="13">
         <v>5</v>
       </c>
-      <c r="B145" s="34" t="s">
+      <c r="B145" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="34"/>
-      <c r="F145" s="25"/>
-      <c r="G145" s="26"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="26"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="26"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
+      <c r="E145" s="38"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="40"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="40"/>
+      <c r="J145" s="39"/>
+      <c r="K145" s="40"/>
     </row>
     <row r="146" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="13">
         <v>6</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="25"/>
-      <c r="G146" s="26"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="26"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="26"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38"/>
+      <c r="E146" s="38"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="40"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="40"/>
+      <c r="J146" s="39"/>
+      <c r="K146" s="40"/>
     </row>
     <row r="147" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="13">
         <v>7</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="34"/>
-      <c r="E147" s="34"/>
-      <c r="F147" s="25"/>
-      <c r="G147" s="26"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="26"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="26"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="40"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="40"/>
+      <c r="J147" s="39"/>
+      <c r="K147" s="40"/>
     </row>
     <row r="148" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="13">
         <v>8</v>
       </c>
-      <c r="B148" s="34" t="s">
+      <c r="B148" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="34"/>
-      <c r="F148" s="25"/>
-      <c r="G148" s="26"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="26"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="26"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="40"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="40"/>
+      <c r="J148" s="39"/>
+      <c r="K148" s="40"/>
     </row>
     <row r="149" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13">
         <v>9</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B149" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="25"/>
-      <c r="G149" s="26"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="26"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="26"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="40"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="40"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="40"/>
     </row>
     <row r="150" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="13">
         <v>10</v>
       </c>
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="34"/>
-      <c r="E150" s="34"/>
-      <c r="F150" s="25"/>
-      <c r="G150" s="26"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="26"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="26"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
+      <c r="F150" s="39"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="39"/>
+      <c r="K150" s="40"/>
     </row>
     <row r="151" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13">
         <v>11</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C151" s="34"/>
-      <c r="D151" s="34"/>
-      <c r="E151" s="34"/>
-      <c r="F151" s="25"/>
-      <c r="G151" s="26"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="26"/>
-      <c r="J151" s="25"/>
-      <c r="K151" s="26"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="40"/>
+      <c r="J151" s="39"/>
+      <c r="K151" s="40"/>
     </row>
     <row r="152" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13">
         <v>12</v>
       </c>
-      <c r="B152" s="34" t="s">
+      <c r="B152" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="34"/>
-      <c r="F152" s="25"/>
-      <c r="G152" s="26"/>
-      <c r="H152" s="25"/>
-      <c r="I152" s="26"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="26"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="38"/>
+      <c r="F152" s="39"/>
+      <c r="G152" s="40"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="40"/>
+      <c r="J152" s="39"/>
+      <c r="K152" s="40"/>
     </row>
     <row r="153" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13">
         <v>13</v>
       </c>
-      <c r="B153" s="34" t="s">
+      <c r="B153" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="C153" s="34"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
-      <c r="F153" s="25"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="26"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38"/>
+      <c r="E153" s="38"/>
+      <c r="F153" s="39"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="39"/>
+      <c r="K153" s="40"/>
     </row>
     <row r="154" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="13">
         <v>14</v>
       </c>
-      <c r="B154" s="34" t="s">
+      <c r="B154" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="34"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
-      <c r="F154" s="25"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="26"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="38"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="40"/>
+      <c r="J154" s="39"/>
+      <c r="K154" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="162">
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="B144:E144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="A122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B124:K134"/>
-    <mergeCell ref="B135:K135"/>
-    <mergeCell ref="A137:K138"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="A119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="A120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="A121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="A117:K117"/>
-    <mergeCell ref="A118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="A111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="A112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="A109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="A110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="A106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="A104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="A96:K97"/>
-    <mergeCell ref="A99:L99"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A31:K34"/>
-    <mergeCell ref="B48:K67"/>
-    <mergeCell ref="B69:K71"/>
-    <mergeCell ref="B74:K82"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:J11"/>
@@ -7419,18 +7368,136 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="A96:K97"/>
+    <mergeCell ref="A99:L99"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A31:K34"/>
+    <mergeCell ref="B48:K67"/>
+    <mergeCell ref="B69:K71"/>
+    <mergeCell ref="B74:K82"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="A120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="A121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="A117:K117"/>
+    <mergeCell ref="A118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="A122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B124:K134"/>
+    <mergeCell ref="B135:K135"/>
+    <mergeCell ref="A137:K138"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="B144:E144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
